--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -138,6 +138,57 @@
   </si>
   <si>
     <t xml:space="preserve">utiliser plus de commande qui sont généré aléatoirement </t>
+  </si>
+  <si>
+    <t>30-01-2017</t>
+  </si>
+  <si>
+    <t>31-01-2017</t>
+  </si>
+  <si>
+    <t>06-02-2017</t>
+  </si>
+  <si>
+    <t>07-02-2017</t>
+  </si>
+  <si>
+    <t>13-02-2017</t>
+  </si>
+  <si>
+    <t>14-02-2017</t>
+  </si>
+  <si>
+    <t>Recherche sur les fragmented activity, plus tutoriel</t>
+  </si>
+  <si>
+    <t>tentative de faire fonctionner les fragmented activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliser mon cellulaire pour faire foncitonner mon app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppresion des fragmented activity et utilisation des gridview </t>
+  </si>
+  <si>
+    <t>erreur avec les gridview commencement avec les layout</t>
+  </si>
+  <si>
+    <t>travaille sur l'interface  et configuration des bouton pour activé le  Clicke</t>
+  </si>
+  <si>
+    <t>02-02-2017</t>
+  </si>
+  <si>
+    <t>modification des fragments et essaie d'autres tuto</t>
+  </si>
+  <si>
+    <t>18-02-2017</t>
+  </si>
+  <si>
+    <t>recherche pour faire un timer et modification du theme</t>
+  </si>
+  <si>
+    <t>J'ai mal gerer mon temps mais je suis tout de même satisfait, plusieurs tentative pour faire l'interface qui n'on pas fonctionné. Parcontre je n'ai pas respecter mon itinéraire, j'ai noter que je devais faire l'interface a la fin mais je n'avais pas réfléchit au fait qu'il me faut des objet sur lequel progguer.</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1821,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,44 +1930,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2000,7 +2099,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2013,7 +2112,9 @@
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2022,7 +2123,9 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -189,6 +186,27 @@
   </si>
   <si>
     <t>J'ai mal gerer mon temps mais je suis tout de même satisfait, plusieurs tentative pour faire l'interface qui n'on pas fonctionné. Parcontre je n'ai pas respecter mon itinéraire, j'ai noter que je devais faire l'interface a la fin mais je n'avais pas réfléchit au fait qu'il me faut des objet sur lequel progguer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire que les deux bouton puisse afficher un toast et changer l'image </t>
+  </si>
+  <si>
+    <t>rechercher pour les progressBar et le CountDownTimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechercher pour les parametre a utiliser pour le "shake" du téléphone et l'utiliser + tentative de l'inserer dans le code </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création de la progresse bar et utilisation du count down timer </t>
+  </si>
+  <si>
+    <t>modifier le count down timer pour qu'il soit fluid (toujours en court)</t>
+  </si>
+  <si>
+    <t>tentative de "reset la progressBar"</t>
   </si>
 </sst>
 </file>
@@ -332,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,7 +1672,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1698,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
@@ -1709,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
@@ -1720,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
         <v>35</v>
@@ -1731,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1742,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
         <v>20</v>
@@ -1786,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
@@ -1872,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -1931,10 +1950,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="15">
         <v>3</v>
@@ -1942,10 +1961,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -1953,10 +1972,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -1964,10 +1983,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="15">
         <v>3</v>
@@ -1975,10 +1994,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -1986,10 +2005,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15">
         <v>3</v>
@@ -1997,10 +2016,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -2008,10 +2027,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C21" s="15">
         <v>1</v>
@@ -2104,13 +2123,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4">
         <v>8</v>
@@ -2121,10 +2140,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2157,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,36 +2234,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42800</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>42801</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>42807</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="23">
+        <v>42810</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23">
+        <v>42811</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -2338,27 +2391,29 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="20"/>
     </row>
@@ -2576,13 +2631,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2591,7 +2646,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="20"/>
     </row>
@@ -2662,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2809,13 +2864,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2824,7 +2879,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="20"/>
     </row>

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>tentative de "reset la progressBar"</t>
+  </si>
+  <si>
+    <t>presentation des projet au groupe</t>
+  </si>
+  <si>
+    <t>travail sur les boutons et les switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification de image avec Gimp 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">travail sur la progress bar pour qu'elle se réinitialise lorsque le  bouton est appuyer + perte de temps </t>
+  </si>
+  <si>
+    <t>rechercher pour l'utilisation de l'Accélerometre et le shake su téléphone plus test de code</t>
+  </si>
+  <si>
+    <t>creation des classe pour la vie et les epreuve et travail sur les méthode pour epreuve</t>
+  </si>
+  <si>
+    <t>certaine parti du code sont deprecated donc j'utilise une autre façons</t>
   </si>
 </sst>
 </file>
@@ -350,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +414,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -402,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,10 +1796,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>90</v>
@@ -1861,10 +1889,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>10</v>
@@ -2112,10 +2140,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>18</v>
@@ -2142,24 +2170,24 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2176,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2273,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>42801</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2256,7 +2284,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>42807</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2278,7 +2306,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>42810</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2289,7 +2317,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>42811</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2385,10 +2413,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>12.5</v>
@@ -2415,22 +2443,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2445,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,39 +2533,81 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42814</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="26">
+        <v>42815</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="26">
+        <v>42821</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="26">
+        <v>42822</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="26">
+        <v>42822</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="26">
+        <v>42828</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="26">
+        <v>42834</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2615,60 +2685,59 @@
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="17"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="4"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="23"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B46" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+  <mergeCells count="1">
+    <mergeCell ref="B41:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2853,10 +2922,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2881,22 +2950,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -228,6 +228,33 @@
   </si>
   <si>
     <t>certaine parti du code sont deprecated donc j'utilise une autre façons</t>
+  </si>
+  <si>
+    <t>Finalisation des contriantes de fin</t>
+  </si>
+  <si>
+    <t>Présentation des projet</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation</t>
+  </si>
+  <si>
+    <t>Chercher pour l'erreur "Erreur installing restart patches"</t>
+  </si>
+  <si>
+    <t>Création d'un nouveau projet et recherche de l'erreur</t>
+  </si>
+  <si>
+    <t>erreur trouvé finalisation du copiage du projet</t>
+  </si>
+  <si>
+    <t>Implementation du "Shake" sensor</t>
+  </si>
+  <si>
+    <t>Apparition de l'erreur "Erreur installing restart patches" et tentative de résolution</t>
+  </si>
+  <si>
+    <t>Modification des Bouton et timer</t>
   </si>
 </sst>
 </file>
@@ -415,6 +442,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -430,7 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,10 +1823,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>90</v>
@@ -1889,10 +1916,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>10</v>
@@ -2140,10 +2167,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>18</v>
@@ -2170,24 +2197,24 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2413,10 +2440,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>12.5</v>
@@ -2443,22 +2470,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2475,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B41" sqref="B41:B46"/>
     </sheetView>
   </sheetViews>
@@ -2544,7 +2571,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="A15" s="21">
         <v>42815</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2555,7 +2582,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="21">
         <v>42821</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2566,7 +2593,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="21">
         <v>42822</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2577,7 +2604,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="21">
         <v>42822</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2588,7 +2615,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="21">
         <v>42828</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2599,7 +2626,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="21">
         <v>42834</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2718,22 +2745,22 @@
       <c r="A41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2747,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C49"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,59 +2834,123 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42872</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>25</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2922,55 +3013,65 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="16">
+        <f>SUM(C14:C38)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="25"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B44:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
